--- a/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>090020</t>
-  </si>
-  <si>
-    <t>大成健康产业混合</t>
-  </si>
-  <si>
-    <t>4.90</t>
-  </si>
-  <si>
-    <t>93.20</t>
-  </si>
-  <si>
-    <t>6.11</t>
-  </si>
-  <si>
-    <t>0.2994</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8443</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6803</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.09</v>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -953,13 +996,537 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3873</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.82</v>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.09</v>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2173</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1520,13 +1585,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.93</v>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1865,14 +1908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.82</v>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1881,14 +1946,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.09</v>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1897,13 +1984,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,95 +455,401 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090020</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成健康产业混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2994</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -570,7 +876,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -600,36 +906,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>001915</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>宝盈医疗健康沪港深股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.06</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8443</t>
+          <t>0.3857</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -638,36 +944,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005001</t>
+          <t>090020</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德持续成长主题混合</t>
+          <t>大成健康产业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.29</t>
+          <t>91.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6803</t>
+          <t>0.2173</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -676,32 +982,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>090020</t>
+          <t>012045</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成健康产业混合</t>
+          <t>大成医药健康股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3395</t>
+          <t>0.2084</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -714,36 +1020,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010375</t>
+          <t>519673</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国金鑫悦经济新动能混合A</t>
+          <t>银河康乐股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>92.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0909</t>
+          <t>0.0790</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -752,36 +1058,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001365</t>
+          <t>012046</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成正向回报灵活配置混合</t>
+          <t>大成医药健康股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.71</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>7.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0559</t>
+          <t>0.0182</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -790,36 +1096,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>008884</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>博远博锐混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>86.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0433</t>
+          <t>0.0120</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -828,36 +1134,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>001563</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>华富健康文娱灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.67</t>
+          <t>90.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0226</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -866,36 +1172,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010376</t>
+          <t>008885</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国金鑫悦经济新动能混合C</t>
+          <t>博远博锐混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>86.59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +1209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1453,7 +1759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1480,7 +1786,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1510,36 +1816,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001915</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈医疗健康沪港深股票</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>27.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>90.70</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3857</t>
+          <t>0.8443</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1548,36 +1854,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090020</t>
+          <t>005001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成健康产业混合</t>
+          <t>交银施罗德持续成长主题混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>24.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>87.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2173</t>
+          <t>0.6803</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1586,32 +1892,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012045</t>
+          <t>090020</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成医药健康股票A</t>
+          <t>大成健康产业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2084</t>
+          <t>0.3395</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1624,36 +1930,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519673</t>
+          <t>010375</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河康乐股票</t>
+          <t>国金鑫悦经济新动能混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0790</t>
+          <t>0.0909</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1662,36 +1968,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012046</t>
+          <t>001365</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成医药健康股票C</t>
+          <t>大成正向回报灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>88.71</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0182</t>
+          <t>0.0559</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1700,36 +2006,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008884</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博远博锐混合A</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>91.67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0120</t>
+          <t>0.0433</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1738,36 +2044,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001563</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华富健康文娱灵活配置混合</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>91.67</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0226</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1776,320 +2082,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008885</t>
+          <t>010376</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博远博锐混合C</t>
+          <t>国金鑫悦经济新动能混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.34</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001915</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>宝盈医疗健康沪港深股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3709</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>090020</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成健康产业混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2484</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>012045</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2194</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001365</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成正向回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>540007</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.94</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>012046</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.98</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2103,112 +2125,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.09</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3</v>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.82</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>2.09</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -566,6 +583,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3820</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014122</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成品质医疗股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016060</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -849,7 +1376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1209,7 +1736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1759,7 +2286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2119,7 +2646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/605369-拱东医疗.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.82</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>2.09</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -583,6 +600,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2732</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1504</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012045</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺德量化先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.32</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012046</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>015562</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016060</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +2153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1376,7 +2437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1736,7 +2797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2286,7 +3347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2646,7 +3707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
